--- a/src/main/resources/excel/1 Both, Neither.xlsx
+++ b/src/main/resources/excel/1 Both, Neither.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Both" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+  <si>
+    <t xml:space="preserve">On Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">se utiliza cuando quieres enfatizar la ubicación, posición o participación de algo en ambos elementos o lados de una situación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you available for a meeting on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Estás disponible para una reunión tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you free to meet on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Puedes reunirte tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we meet on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podemos encontrarnos tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have availability for meetings on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene disponibilidad para reuniones tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you have time for meetings on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Tiene tiempo para reuniones tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is it possible for us to meet on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Es posible que nos reunamos tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would it be convenient for you to meet on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Les convendría reunirnos tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would you be able to accommodate meetings on both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podrían organizar reuniones tanto el viernes como el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are trees on both sides of the road </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay árboles en ambos lados de la carretera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book is placed both on the table and on the shelf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El libro está colocado tanto en la mesa como en el estante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is working both on the project and on the presentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Él está trabajando tanto en el proyecto como en la presentación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She excels both on the track and on the field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella sobresale tanto en la pista como en el campo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The conference covers topics both on economics and on politics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La conferencia cubre temas tanto de economía como de política </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The decorations are hung both on the walls and on the ceiling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las decoraciones están colgadas tanto en las paredes como en el techo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both Tom and Sarah were invited to the conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto Tom como Sarah fueron invitados a la conferencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both the cat and the dog are allowed in the living room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto el gato como el perro tienen permitido estar en la sala de estar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both chocolate and vanilla ice cream are available for dessert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto el helado de chocolate como el de vainilla están disponibles para el postre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both the red and the blue shirts are on sale this week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto las camisas rojas como las azules están en oferta esta semana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both John and Mary are coming to the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto John como Mary van a venir a la fiesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both John and Mary are on the guest list for the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto John como Mary están en la lista de invitados a la fiesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both John and Mary have confirmed their attendance at the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto John como Mary han confirmado su asistencia a la fiesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both John and Mary will be present at the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto John como Mary estarán presentes en la fiesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both English and French are taught at the language school </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto inglés como francés se enseñan en la escuela de idiomas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aɪ laɪk boʊθ ˈʧɔklət ænd vəˈnɪlə aɪs krim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the party, we can expect to see both John and Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la fiesta, podemos esperar ver tanto a John como a Mary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kæn wi mit ɑn boʊθ ˈfraɪˌdeɪ ænd ˈsætərˌdeɪ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we schedule a meeting for both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podemos programar una reunión para el viernes y el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðeɪ boʊθ lʌv ˈhaɪkɪŋ ɪn ðə ˈmaʊntənz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we set up meetings for both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podemos programar reuniones para el viernes y el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðiz ʃuz ɑr əˈveɪləbəl ɪn boʊθ blæk ænd braʊn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could we arrange a meeting time that works for both Friday and Saturday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Podríamos concertar una reunión que funcione tanto para el viernes como para el sábado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ðə ˈrɛstəˌrɑnt ˈɔfərz boʊθ ˌvɛʤəˈtɛriən ænd nɑn-ˌvɛʤəˈtɛriən ˈdɪʃəz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He excels in both mathematics and computer science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destaca tanto en matemáticas como en informática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ʃi ɪz boʊθ ə ˈtæləntəd mjuˈzɪʃən ænd ə skɪld ˈpeɪntər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He has a fondness for both playing basketball and soccer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene afición tanto por jugar baloncesto como por fútbol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boʊθ ʤɑn ænd ˈmɛri ɑr ˈkʌmɪŋ tu ðə ˈpɑrti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">He is skilled in both cooking and baking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es hábil tanto en la cocina como en la repostería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I admire both classic literature and modern poetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admiro tanto la literatura clásica como la poesía moderna.</t>
+  </si>
   <si>
     <t xml:space="preserve">I like both chocolate and vanilla ice cream</t>
   </si>
@@ -30,7 +246,106 @@
     <t xml:space="preserve">Me gusta tanto el helado de chocolate como el de vainilla</t>
   </si>
   <si>
-    <t xml:space="preserve">aɪ laɪk boʊθ ˈʧɔklət ænd vəˈnɪlə aɪs krim</t>
+    <t xml:space="preserve">John and Mary alike will be joining us at the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanto John como Mary se unirán a nosotros en la fiesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John and Mary are both looking forward to the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John y Mary esperan con ansias la fiesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John and Mary are both planning to attend the party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John y Mary planean asistir a la fiesta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah is skilled in both playing the piano and the guitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah tiene habilidad para tocar el piano y la guitarra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She enjoys both reading mystery novels and watching crime dramas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le gusta leer novelas de misterio y ver dramas policiales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She has both a cat and a dog as pets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella tiene tanto un gato como un perro como mascotas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She is both a talented musician and a skilled painter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ella es tanto una talentosa músico como una hábil pintora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The book is available in both paperback and hardcover editions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El libro está disponible en ediciones de tapa blanda y tapa dura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The concert featured both classical and contemporary music</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El concierto presentó tanto música clásica como música contemporánea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movie was both entertaining and thought-provoking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La película fue a la vez entretenida y estimulante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The party attendees include both John and Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los asistentes a la fiesta incluyen tanto a John como a Mary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The party will be attended by both John and Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A la fiesta asistirán tanto John como Mary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The party will see the presence of both John and Mary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La fiesta contará con la presencia de John y Mary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant offers both vegetarian and non-vegetarian dishes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El restaurante ofrece platos tanto vegetarianos como no vegetarianos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The restaurant offers both vegetarian and non-vegetarian options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El restaurante ofrece opciones vegetarianas y no vegetarianas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These shoes are available in both black and brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estos zapatos están disponibles tanto en negro como en marrón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They appreciate both hiking in the mountains and relaxing at the beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aprecian tanto el senderismo en la montaña como el relax en la playa.</t>
   </si>
   <si>
     <t xml:space="preserve">They are both excellent students</t>
@@ -39,25 +354,28 @@
     <t xml:space="preserve">Ambos son excelentes estudiantes</t>
   </si>
   <si>
-    <t xml:space="preserve">ðeɪ ɑr boʊθ ˈɛksələnt ˈstudənts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can we meet on both Friday and Saturday?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Podemos encontrarnos tanto el viernes como el sábado?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kæn wi mit ɑn boʊθ ˈfraɪˌdeɪ ænd ˈsætərˌdeɪ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She has both a cat and a dog as pets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ella tiene tanto un gato como un perro como mascotas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʃi hæz boʊθ ə kæt ænd ə dɔɡ æz pɛts</t>
+    <t xml:space="preserve">They both love hiking in the mountains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ambos les encanta hacer senderismo en las montañas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They prefer both action-packed movies and romantic comedies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefieren tanto películas llenas de acción como comedias románticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We cherish both spending time with family and exploring new adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valoramos tanto pasar tiempo con la familia como explorar nuevas aventuras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to address both the short-term and long-term goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesitamos abordar tanto los objetivos a corto plazo como los objetivos a largo plazo</t>
   </si>
   <si>
     <t xml:space="preserve">We need to consider both options before making a decision</t>
@@ -66,97 +384,10 @@
     <t xml:space="preserve">Necesitamos considerar ambas opciones antes de tomar una decisión</t>
   </si>
   <si>
-    <t xml:space="preserve">wi nid tu kənˈsɪdər boʊθ ˈɑpʃənz bɪˈfɔr ˈmeɪkɪŋ ə dɪˈsɪʒən</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The book is available in both paperback and hardcover editions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El libro está disponible en ediciones de tapa blanda y tapa dura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðə bʊk ɪz əˈveɪləbəl ɪn boʊθ ˈpeɪpərˌbæk ænd ˈhɑrdˌkʌvər ɪˈdɪʃənz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He is skilled in both cooking and baking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es hábil tanto en la cocina como en la repostería</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hi ɪz skɪld ɪn boʊθ ˈkʊkɪŋ ænd ˈbeɪkɪŋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The movie was both entertaining and thought-provoking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La película fue a la vez entretenida y estimulante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðə ˈmuvi wʌz boʊθ ˌɛntərˈteɪnɪŋ ænd θɔt-prəˈvoʊkɪŋ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">They both love hiking in the mountains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A ambos les encanta hacer senderismo en las montañas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðeɪ boʊθ lʌv ˈhaɪkɪŋ ɪn ðə ˈmaʊntənz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">These shoes are available in both black and brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estos zapatos están disponibles tanto en negro como en marrón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðiz ʃuz ɑr əˈveɪləbəl ɪn boʊθ blæk ænd braʊn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The restaurant offers both vegetarian and non-vegetarian dishes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El restaurante ofrece platos tanto vegetarianos como no vegetarianos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðə ˈrɛstəˌrɑnt ˈɔfərz boʊθ ˌvɛʤəˈtɛriən ænd nɑn-ˌvɛʤəˈtɛriən ˈdɪʃəz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We need to address both the short-term and long-term goals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Necesitamos abordar tanto los objetivos a corto plazo como los objetivos a largo plazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wi nid tu ˈæˌdrɛs boʊθ ðə ʃɔrt-tɜrm ænd ˈlɔŋˈtɜrm ɡoʊlz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The concert featured both classical and contemporary music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El concierto presentó tanto música clásica como música contemporánea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ðə ˈkɑnsɜrt ˈfiʧərd boʊθ ˈklæsɪkəl ænd kənˈtɛmpəˌrɛri ˈmjuzɪk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She is both a talented musician and a skilled painter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ella es tanto una talentosa músico como una hábil pintora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ʃi ɪz boʊθ ə ˈtæləntəd mjuˈzɪʃən ænd ə skɪld ˈpeɪntər</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both John and Mary are coming to the party</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanto John como Mary van a venir a la fiesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boʊθ ʤɑn ænd ˈmɛri ɑr ˈkʌmɪŋ tu ðə ˈpɑrti</t>
+    <t xml:space="preserve">We savor both homemade pizza and sushi rolls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saboreamos tanto pizza casera como rollitos de sushi.</t>
   </si>
   <si>
     <t xml:space="preserve">I can't decide between the red or blue shirt, I like either one</t>
@@ -436,7 +667,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -458,19 +689,39 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -501,12 +752,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -519,6 +806,15 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -633,186 +929,598 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="53.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="39.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="66.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="39.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="62.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="C35" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="C40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0"/>
+      <c r="C53" s="0"/>
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -830,180 +1538,180 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="70.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="64.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="62.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="70.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="64.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>47</v>
+      <c r="A1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>50</v>
+      <c r="A2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>53</v>
+      <c r="A3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>56</v>
+      <c r="A4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>59</v>
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>62</v>
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>65</v>
+      <c r="A7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>68</v>
+      <c r="A8" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>71</v>
+      <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>74</v>
+      <c r="A10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>77</v>
+      <c r="A11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>80</v>
+      <c r="A12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>83</v>
+      <c r="A13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>86</v>
+      <c r="A14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>89</v>
+      <c r="A15" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1024,180 +1732,180 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="54.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="56.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="56.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>92</v>
+      <c r="A1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>95</v>
+      <c r="A2" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>98</v>
+      <c r="A3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>101</v>
+      <c r="A4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>104</v>
+      <c r="A5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>107</v>
+      <c r="A6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>110</v>
+      <c r="A7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>113</v>
+      <c r="A8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>116</v>
+      <c r="A9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>119</v>
+      <c r="A10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>122</v>
+      <c r="A11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>125</v>
+      <c r="A12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>128</v>
+      <c r="A13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>131</v>
+      <c r="A14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>134</v>
+      <c r="A15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
